--- a/Documentacion/Sel/Sel - Planilla de Métricas V2.1.xlsx
+++ b/Documentacion/Sel/Sel - Planilla de Métricas V2.1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKP ALMIRON\ENZO-AMS\TEIC\Nueva carpeta\PROG III\TP2\TP2-NewEnzo\Documentacion\Sel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -135,16 +130,16 @@
     <t>resolver()</t>
   </si>
   <si>
-    <t>calculoDeError()</t>
+    <t>atributos, constructor</t>
   </si>
   <si>
-    <t>atributos, constructor</t>
+    <t>calcularError()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -780,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1001,15 +996,6 @@
     <xf numFmtId="1" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,6 +1088,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,27 +1131,37 @@
     <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,58 +1172,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1456,18 +1476,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1477,8 +1488,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.3565974707706982E-2"/>
           <c:y val="7.4074152627750078E-2"/>
-          <c:w val="0.40158680164979416"/>
-          <c:h val="0.85185169474450051"/>
+          <c:w val="0.40158680164979427"/>
+          <c:h val="0.85185169474450073"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -1488,13 +1499,12 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1502,13 +1512,12 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1516,13 +1525,12 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0066FF"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1530,13 +1538,12 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="009900"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1544,13 +1551,12 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1558,13 +1564,12 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1605,21 +1610,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-49DD-4FD5-A2AE-26863999DE8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1631,7 +1628,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -1639,7 +1635,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1723,7 +1719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1758,7 +1754,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1935,21 +1931,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -1965,23 +1961,23 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="145" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2025,12 +2021,12 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2156,12 +2152,12 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2198,15 +2194,15 @@
       <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="7"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
@@ -2231,19 +2227,19 @@
       <c r="D9" s="25">
         <v>0.4916666666666667</v>
       </c>
-      <c r="E9" s="147">
+      <c r="E9" s="106">
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F9" s="139"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
       <c r="O9" s="15"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -2287,12 +2283,12 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2329,15 +2325,15 @@
       <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
       <c r="O12" s="7"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="14"/>
@@ -2362,15 +2358,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
         <v>Completar</v>
       </c>
-      <c r="F13" s="139"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
       <c r="O13" s="15"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="22"/>
@@ -2414,21 +2410,21 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="111"/>
       <c r="O15" s="4"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2444,31 +2440,31 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="121" t="s">
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="122"/>
+      <c r="G16" s="135"/>
       <c r="H16" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="121" t="s">
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="122"/>
-      <c r="M16" s="119" t="s">
+      <c r="L16" s="135"/>
+      <c r="M16" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="131" t="s">
+      <c r="N16" s="128" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="7"/>
@@ -2486,10 +2482,10 @@
     </row>
     <row r="17" spans="1:26" ht="30" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="26" t="s">
         <v>15</v>
       </c>
@@ -2511,8 +2507,8 @@
       <c r="L17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="120"/>
-      <c r="N17" s="132"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="129"/>
       <c r="O17" s="7"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="14"/>
@@ -2532,11 +2528,11 @@
         <f t="shared" ref="B18:B38" si="0">ROW($B18)-16</f>
         <v>2</v>
       </c>
-      <c r="C18" s="109" t="s">
-        <v>39</v>
+      <c r="C18" s="122" t="s">
+        <v>38</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="31">
         <v>60</v>
       </c>
@@ -2550,7 +2546,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="J18" s="35">
-        <f t="shared" ref="J18:J27" si="1">IFERROR(IF(OR(ISBLANK(H18),ISBLANK(I18)),"",IF(I18&gt;=H18,I18-H18,"Error")),"Error")</f>
+        <f t="shared" ref="J18:J22" si="1">IFERROR(IF(OR(ISBLANK(H18),ISBLANK(I18)),"",IF(I18&gt;=H18,I18-H18,"Error")),"Error")</f>
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="K18" s="36">
@@ -2585,11 +2581,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="31">
         <v>10</v>
       </c>
@@ -2638,11 +2634,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="31">
         <v>10</v>
       </c>
@@ -2691,11 +2687,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="31">
         <v>60</v>
       </c>
@@ -2715,7 +2711,7 @@
       <c r="K21" s="36">
         <v>1</v>
       </c>
-      <c r="L21" s="94">
+      <c r="L21" s="91">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="M21" s="38">
@@ -2738,58 +2734,58 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="1:26" s="84" customFormat="1">
+    <row r="22" spans="1:26" s="81" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="72"/>
       <c r="B22" s="73">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
-        <v>38</v>
+      <c r="C22" s="145" t="s">
+        <v>39</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="74">
-        <v>8</v>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="94">
+        <v>15</v>
       </c>
-      <c r="G22" s="75">
-        <v>6.9444444444444441E-3</v>
+      <c r="G22" s="95">
+        <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H22" s="76">
-        <v>0.63124999999999998</v>
+      <c r="H22" s="96">
+        <v>6.5972222222222224E-2</v>
       </c>
-      <c r="I22" s="77">
-        <v>0.6381944444444444</v>
+      <c r="I22" s="74">
+        <v>9.7222222222222224E-2</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="75">
         <f t="shared" si="1"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K22" s="79">
-        <v>0</v>
+      <c r="K22" s="76">
+        <v>1</v>
       </c>
-      <c r="L22" s="80">
-        <v>0</v>
+      <c r="L22" s="77">
+        <v>1.0416666666666666E-2</v>
       </c>
-      <c r="M22" s="81">
-        <v>14</v>
+      <c r="M22" s="78">
+        <v>11</v>
       </c>
       <c r="N22" s="39">
         <f t="shared" si="2"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="O22" s="72"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="15"/>
@@ -2797,9 +2793,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="42"/>
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
@@ -2831,9 +2827,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="42"/>
       <c r="G24" s="43"/>
       <c r="H24" s="44"/>
@@ -2865,9 +2861,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
       <c r="F25" s="42"/>
       <c r="G25" s="43"/>
       <c r="H25" s="44"/>
@@ -2899,9 +2895,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="42"/>
       <c r="G26" s="43"/>
       <c r="H26" s="44"/>
@@ -2933,9 +2929,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
       <c r="F27" s="42"/>
       <c r="G27" s="43"/>
       <c r="H27" s="44"/>
@@ -2967,9 +2963,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="42"/>
       <c r="G28" s="43"/>
       <c r="H28" s="44"/>
@@ -3001,9 +2997,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
       <c r="F29" s="42"/>
       <c r="G29" s="43"/>
       <c r="H29" s="44"/>
@@ -3032,9 +3028,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
@@ -3058,24 +3054,24 @@
       <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="A31" s="85"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="85"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="82"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
@@ -3088,108 +3084,108 @@
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="1:26" s="108" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96">
+    <row r="32" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="93">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-    </row>
-    <row r="33" spans="1:26" s="108" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96">
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+    </row>
+    <row r="33" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="93">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-    </row>
-    <row r="34" spans="1:26" s="108" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96">
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+    </row>
+    <row r="34" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="93">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1">
-      <c r="A35" s="85"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="42"/>
       <c r="G35" s="43"/>
       <c r="H35" s="44"/>
@@ -3199,7 +3195,7 @@
       <c r="L35" s="47"/>
       <c r="M35" s="48"/>
       <c r="N35" s="39"/>
-      <c r="O35" s="85"/>
+      <c r="O35" s="82"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
@@ -3213,14 +3209,14 @@
       <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1">
-      <c r="A36" s="85"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="42"/>
       <c r="G36" s="43"/>
       <c r="H36" s="44"/>
@@ -3230,7 +3226,7 @@
       <c r="L36" s="47"/>
       <c r="M36" s="48"/>
       <c r="N36" s="39"/>
-      <c r="O36" s="85"/>
+      <c r="O36" s="82"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
@@ -3244,14 +3240,14 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1">
-      <c r="A37" s="85"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
       <c r="F37" s="42"/>
       <c r="G37" s="43"/>
       <c r="H37" s="44"/>
@@ -3261,7 +3257,7 @@
       <c r="L37" s="47"/>
       <c r="M37" s="48"/>
       <c r="N37" s="39"/>
-      <c r="O37" s="85"/>
+      <c r="O37" s="82"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -3280,9 +3276,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="111"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="124"/>
       <c r="F38" s="42"/>
       <c r="G38" s="43"/>
       <c r="H38" s="44"/>
@@ -3307,19 +3303,19 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="49">
         <f>IF(SUM(F18:F38)=0,"Completar",SUM(F18:F38))</f>
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G39" s="50">
         <f>IF(SUM(G18:G38)=0,"Completar",SUM(G18:G38))</f>
-        <v>8.3333333333333343E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="H39" s="51" t="s">
         <v>22</v>
@@ -3329,23 +3325,23 @@
       </c>
       <c r="J39" s="53">
         <f>IF(OR(COUNTIF(J18:J38,"Error")&gt;0,COUNTIF(J18:J38,"Completar")&gt;0),"Error",IF(SUM(J18:J38)=0,"Completar",SUM(J18:J38)))</f>
-        <v>5.8333333333333348E-2</v>
+        <v>8.2638888888888928E-2</v>
       </c>
       <c r="K39" s="54">
         <f>SUM(K18:K38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="50">
         <f>SUM(L18:L38)</f>
-        <v>3.472222222222222E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="M39" s="55">
         <f>IF(SUM(M18:M38)=0,"Completar",SUM(M18:M38))</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N39" s="18">
         <f>IF(OR(COUNTIF(N18:N38,"Error")&gt;0,COUNTIF(N18:N38,"Completar")&gt;0),"Error",IF(SUM(N18:N38)=0,"Completar",SUM(N18:N38)))</f>
-        <v>6.1805555555555572E-2</v>
+        <v>9.6527777777777823E-2</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="56"/>
@@ -3390,12 +3386,12 @@
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3515,21 +3511,21 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="20"/>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="116"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="111"/>
       <c r="O45" s="20"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="59"/>
@@ -3545,16 +3541,16 @@
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
       <c r="A46" s="20"/>
-      <c r="B46" s="134" t="s">
+      <c r="B46" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="130"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="136">
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="127">
         <f>M39</f>
-        <v>101</v>
+        <v>98</v>
       </c>
-      <c r="F46" s="135"/>
+      <c r="F46" s="117"/>
       <c r="G46" s="60"/>
       <c r="H46" s="61"/>
       <c r="I46" s="61"/>
@@ -3578,16 +3574,16 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="20"/>
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="130"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="144">
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="126">
         <f>IF(M39="Completar","Completar",IFERROR(M39/(N39*24),"Error"))</f>
-        <v>68.089887640449419</v>
+        <v>42.302158273381274</v>
       </c>
-      <c r="F47" s="135"/>
+      <c r="F47" s="117"/>
       <c r="G47" s="63"/>
       <c r="H47" s="64"/>
       <c r="I47" s="64"/>
@@ -3611,16 +3607,16 @@
     </row>
     <row r="48" spans="1:26" ht="15" customHeight="1">
       <c r="A48" s="20"/>
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="130"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="136">
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="127">
         <f>IF(K39=0,0,IFERROR(ROUNDUP(K39/(M39/100),0),"Error"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="F48" s="135"/>
+      <c r="F48" s="117"/>
       <c r="G48" s="63"/>
       <c r="H48" s="64"/>
       <c r="I48" s="64"/>
@@ -3644,16 +3640,16 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1">
       <c r="A49" s="20"/>
-      <c r="B49" s="134" t="s">
+      <c r="B49" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="143">
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="125">
         <f>IF(K39=0,0,IFERROR(K39/M39,"Error"))</f>
-        <v>9.9009900990099011E-3</v>
+        <v>2.0408163265306121E-2</v>
       </c>
-      <c r="F49" s="135"/>
+      <c r="F49" s="117"/>
       <c r="G49" s="63"/>
       <c r="H49" s="64"/>
       <c r="I49" s="64"/>
@@ -3677,18 +3673,18 @@
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1">
       <c r="A50" s="20"/>
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="135"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="66">
         <f>E5</f>
         <v>1.1805555555555514E-2</v>
       </c>
       <c r="F50" s="67">
         <f t="shared" ref="F50:F53" si="3">IF(E50="Completar",E50,IFERROR(E50/$E$56,"Error"))</f>
-        <v>8.6734693877550742E-2</v>
+        <v>6.9105691056910321E-2</v>
       </c>
       <c r="G50" s="63"/>
       <c r="H50" s="64"/>
@@ -3713,18 +3709,18 @@
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1">
       <c r="A51" s="20"/>
-      <c r="B51" s="134" t="s">
+      <c r="B51" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="130"/>
-      <c r="D51" s="135"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="66">
         <f>E9</f>
         <v>6.25E-2</v>
       </c>
       <c r="F51" s="67">
         <f t="shared" si="3"/>
-        <v>0.45918367346938788</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="G51" s="63"/>
       <c r="H51" s="64"/>
@@ -3749,11 +3745,11 @@
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1">
       <c r="A52" s="20"/>
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="135"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="66" t="str">
         <f>E13</f>
         <v>Completar</v>
@@ -3785,11 +3781,11 @@
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1">
       <c r="A53" s="20"/>
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="130"/>
-      <c r="D53" s="135"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="66" t="str">
         <f>E43</f>
         <v>Completar</v>
@@ -3821,18 +3817,18 @@
     </row>
     <row r="54" spans="1:26" ht="15" customHeight="1">
       <c r="A54" s="20"/>
-      <c r="B54" s="134" t="s">
+      <c r="B54" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="130"/>
-      <c r="D54" s="135"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="66">
         <f>L39</f>
-        <v>3.472222222222222E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F54" s="67">
         <f t="shared" ref="F54:F55" si="4">IF(E54="Completar",E54,IFERROR(E54/$E$56,"Completar"))</f>
-        <v>2.5510204081632661E-2</v>
+        <v>8.1300813008130079E-2</v>
       </c>
       <c r="G54" s="63"/>
       <c r="H54" s="64"/>
@@ -3857,18 +3853,18 @@
     </row>
     <row r="55" spans="1:26" ht="15" customHeight="1">
       <c r="A55" s="20"/>
-      <c r="B55" s="134" t="s">
+      <c r="B55" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="130"/>
-      <c r="D55" s="135"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="66">
         <f>J39</f>
-        <v>5.8333333333333348E-2</v>
+        <v>8.2638888888888928E-2</v>
       </c>
       <c r="F55" s="67">
         <f t="shared" si="4"/>
-        <v>0.42857142857142883</v>
+        <v>0.48373983739837423</v>
       </c>
       <c r="G55" s="63"/>
       <c r="H55" s="64"/>
@@ -3893,16 +3889,16 @@
     </row>
     <row r="56" spans="1:26" ht="15" customHeight="1">
       <c r="A56" s="20"/>
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="140">
+      <c r="C56" s="121"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="118">
         <f>IF(COUNTIF(E50:E55,"Error")&gt;0,"Error",IF(SUM(E50:E55)=0,"Completar",SUM(E50:E55)))</f>
-        <v>0.13611111111111107</v>
+        <v>0.17083333333333334</v>
       </c>
-      <c r="F56" s="141"/>
+      <c r="F56" s="119"/>
       <c r="G56" s="68"/>
       <c r="H56" s="69"/>
       <c r="I56" s="69"/>
@@ -30722,13 +30718,40 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B15:N15"/>
     <mergeCell ref="F12:N12"/>
     <mergeCell ref="F13:N13"/>
@@ -30745,118 +30768,91 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C24 A39:XFD1048576 A1:B38 J27:J38 C30:I37 K30:M37 D1:XFD19 D20:M24 N20:XFD38">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
+  <conditionalFormatting sqref="C3:C24 A39:XFD1048576 A1:B38 J27:J38 C30:I37 K30:M37 D1:XFD19 D20:M24 N20:XFD38 C22:E22">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C24 A39:XFD1048576 A1:B38 J27:J38 C30:I37 K30:M37 D1:XFD19 D20:M24 N20:XFD38">
-    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
+  <conditionalFormatting sqref="C3:C24 A39:XFD1048576 A1:B38 J27:J38 C30:I37 K30:M37 D1:XFD19 D20:M24 N20:XFD38 C22:E22">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25 C26:E26">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25 C26:E26">
-    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:M26 C38 F38:I38 K38:M38">
-    <cfRule type="cellIs" dxfId="11" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:M26 C38 F38:I38 K38:M38">
-    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:I27 K27:M27">
-    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:I27 K27:M27">
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:M29 C29 F29:I29">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:M29 C29 F29:I29">
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:I29 K29:M29">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:I29 K29:M29">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentacion/Sel/Sel - Planilla de Métricas V2.1.xlsx
+++ b/Documentacion/Sel/Sel - Planilla de Métricas V2.1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgIII\BranchGus\Documentacion\Sel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -139,12 +144,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,20 +204,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -775,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -987,9 +978,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,40 +1006,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,83 +1018,29 @@
     <xf numFmtId="20" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,10 +1048,9 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,275 +1062,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1476,9 +1148,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1499,12 +1180,13 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1512,12 +1194,13 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1525,12 +1208,13 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0066FF"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1538,12 +1222,13 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="009900"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1551,12 +1236,13 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1564,12 +1250,13 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-49DD-4FD5-A2AE-26863999DE8F}"/>
               </c:ext>
@@ -1577,7 +1264,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Métricas!$B$50:$B$55</c:f>
+              <c:f>Métricas!$B$36:$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1603,20 +1290,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Métricas!$C$50:$C$55</c:f>
+              <c:f>Métricas!$F$36:$F$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.096385542168679E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48192771084337327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.096385542168679E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10120481927710845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8192771084337345E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28674698795180731</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-49DD-4FD5-A2AE-26863999DE8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1628,6 +1341,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -1647,13 +1361,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1931,21 +1645,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1013"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -1961,23 +1675,23 @@
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="107" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -2021,12 +1735,12 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2091,14 +1805,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C5" s="17">
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="17">
-        <v>0.4284722222222222</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="E5" s="18">
         <f>IFERROR(IF(OR(ISBLANK(C5),ISBLANK(D5)),"Completar",IF(D5&gt;=C5,D5-C5,"Error")),"Error")</f>
-        <v>1.1805555555555514E-2</v>
+        <v>1.1805555555555569E-2</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -2152,12 +1866,12 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2194,15 +1908,15 @@
       <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
       <c r="O8" s="7"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
@@ -2222,24 +1936,24 @@
         <v>0.125</v>
       </c>
       <c r="C9" s="17">
-        <v>0.4291666666666667</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="D9" s="25">
-        <v>0.4916666666666667</v>
+        <v>0.48472222222222222</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="120">
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
-        <v>6.25E-2</v>
+        <v>0.13888888888888884</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
       <c r="O9" s="15"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
@@ -2283,12 +1997,12 @@
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2325,15 +2039,15 @@
       <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
       <c r="O12" s="7"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="14"/>
@@ -2352,21 +2066,25 @@
       <c r="B13" s="16">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="18" t="str">
+      <c r="C13" s="25">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="E13" s="18">
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>1.1805555555555569E-2</v>
       </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
       <c r="O13" s="15"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="22"/>
@@ -2410,21 +2128,21 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="111"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="87"/>
       <c r="O15" s="4"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2440,31 +2158,31 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="134" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="133" t="s">
+      <c r="G16" s="104"/>
+      <c r="H16" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="134" t="s">
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="135"/>
-      <c r="M16" s="136" t="s">
+      <c r="L16" s="104"/>
+      <c r="M16" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="98" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="7"/>
@@ -2482,10 +2200,10 @@
     </row>
     <row r="17" spans="1:26" ht="30" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="26" t="s">
         <v>15</v>
       </c>
@@ -2507,8 +2225,8 @@
       <c r="L17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="137"/>
-      <c r="N17" s="129"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="99"/>
       <c r="O17" s="7"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="14"/>
@@ -2525,14 +2243,14 @@
     <row r="18" spans="1:26">
       <c r="A18" s="15"/>
       <c r="B18" s="30">
-        <f t="shared" ref="B18:B38" si="0">ROW($B18)-16</f>
+        <f t="shared" ref="B18:B24" si="0">ROW($B18)-16</f>
         <v>2</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="31">
         <v>60</v>
       </c>
@@ -2559,7 +2277,7 @@
         <v>56</v>
       </c>
       <c r="N18" s="39">
-        <f t="shared" ref="N18:N28" si="2">IFERROR(IF(OR(J18="",ISBLANK(L18)),"",J18+L18),"Error")</f>
+        <f t="shared" ref="N18:N24" si="2">IFERROR(IF(OR(J18="",ISBLANK(L18)),"",J18+L18),"Error")</f>
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="O18" s="15"/>
@@ -2581,11 +2299,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="31">
         <v>10</v>
       </c>
@@ -2634,11 +2352,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="31">
         <v>10</v>
       </c>
@@ -2687,11 +2405,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="31">
         <v>60</v>
       </c>
@@ -2711,7 +2429,7 @@
       <c r="K21" s="36">
         <v>1</v>
       </c>
-      <c r="L21" s="91">
+      <c r="L21" s="81">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="M21" s="38">
@@ -2734,68 +2452,65 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="1:26" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73">
+    <row r="22" spans="1:26" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="94">
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="82">
         <v>15</v>
       </c>
-      <c r="G22" s="95">
+      <c r="G22" s="83">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H22" s="96">
+      <c r="H22" s="84">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="I22" s="74">
+      <c r="I22" s="73">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="J22" s="75">
+      <c r="J22" s="74">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="75">
         <v>1</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="76">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="M22" s="78">
+      <c r="M22" s="77">
         <v>11</v>
       </c>
       <c r="N22" s="39">
         <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="O22" s="72"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="15"/>
-      <c r="B23" s="30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="42"/>
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
@@ -2823,13 +2538,10 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="15"/>
-      <c r="B24" s="30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="42"/>
       <c r="G24" s="43"/>
       <c r="H24" s="44"/>
@@ -2855,161 +2567,180 @@
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="71"/>
-      <c r="B25" s="30">
-        <f t="shared" si="0"/>
-        <v>9</v>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="88" t="s">
+        <v>21</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="49">
+        <f>IF(SUM(F18:F24)=0,"Completar",SUM(F18:F24))</f>
+        <v>155</v>
       </c>
-      <c r="O25" s="71"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="G25" s="50">
+        <f>IF(SUM(G18:G24)=0,"Completar",SUM(G18:G24))</f>
+        <v>9.7222222222222224E-2</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="H25" s="51" t="s">
+        <v>22</v>
       </c>
-      <c r="O26" s="71"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
+      <c r="I25" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="53">
+        <f>IF(OR(COUNTIF(J18:J24,"Error")&gt;0,COUNTIF(J18:J24,"Completar")&gt;0),"Error",IF(SUM(J18:J24)=0,"Completar",SUM(J18:J24)))</f>
+        <v>8.2638888888888928E-2</v>
+      </c>
+      <c r="K25" s="54">
+        <f>SUM(K18:K24)</f>
+        <v>2</v>
+      </c>
+      <c r="L25" s="50">
+        <f>SUM(L18:L24)</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M25" s="55">
+        <f>IF(SUM(M18:M24)=0,"Completar",SUM(M18:M24))</f>
+        <v>98</v>
+      </c>
+      <c r="N25" s="18">
+        <f>IF(OR(COUNTIF(N18:N24,"Error")&gt;0,COUNTIF(N18:N24,"Completar")&gt;0),"Error",IF(SUM(N18:N24)=0,"Completar",SUM(N18:N24)))</f>
+        <v>9.6527777777777823E-2</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+    </row>
+    <row r="26" spans="1:26" ht="6" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="30">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A27" s="4"/>
+      <c r="B27" s="85" t="s">
+        <v>23</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" ht="30" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="O27" s="71"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-    </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="D28" s="9" t="s">
+        <v>4</v>
       </c>
-      <c r="O28" s="71"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-    </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="30">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="E28" s="10" t="s">
+        <v>5</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="71"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="58">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="E29" s="18">
+        <f>IFERROR(IF(OR(ISBLANK(C29),ISBLANK(D29)),"Completar",IF(D29&gt;=C29,D29-C29,"Error")),"Error")</f>
+        <v>2.9166666666666674E-2</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
@@ -3022,510 +2753,516 @@
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="30">
-        <f t="shared" si="0"/>
-        <v>14</v>
+    <row r="30" spans="1:26" ht="6" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="20"/>
+      <c r="B31" s="85" t="s">
+        <v>24</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="30">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="107" t="s">
+        <v>25</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-    </row>
-    <row r="32" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="92"/>
-      <c r="B32" s="93">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="C32" s="91"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109">
+        <f>M25</f>
+        <v>98</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-    </row>
-    <row r="33" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="F32" s="108"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="20"/>
+      <c r="B33" s="107" t="s">
+        <v>26</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-    </row>
-    <row r="34" spans="1:26" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="93">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="C33" s="91"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="117">
+        <f>IF(M25="Completar","Completar",IFERROR(M25/(N25*24),"Error"))</f>
+        <v>42.302158273381274</v>
       </c>
-      <c r="C34" s="131"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="104"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+    </row>
+    <row r="34" spans="1:26" ht="15" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="109">
+        <f>IF(K25=0,0,IFERROR(ROUNDUP(K25/(M25/100),0),"Error"))</f>
+        <v>3</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="30">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="A35" s="20"/>
+      <c r="B35" s="107" t="s">
+        <v>28</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="116">
+        <f>IF(K25=0,0,IFERROR(K25/M25,"Error"))</f>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="F35" s="108"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="30">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="A36" s="20"/>
+      <c r="B36" s="107" t="s">
+        <v>29</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="66">
+        <f>E5</f>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="F36" s="67">
+        <f t="shared" ref="F36:F39" si="3">IF(E36="Completar",E36,IFERROR(E36/$E$42,"Error"))</f>
+        <v>4.096385542168679E-2</v>
+      </c>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="30">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="A37" s="20"/>
+      <c r="B37" s="107" t="s">
+        <v>30</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="66">
+        <f>E9</f>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="F37" s="67">
+        <f t="shared" si="3"/>
+        <v>0.48192771084337327</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="30">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="A38" s="20"/>
+      <c r="B38" s="107" t="s">
+        <v>31</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="144" t="s">
-        <v>21</v>
+      <c r="C38" s="91"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="66">
+        <f>E13</f>
+        <v>1.1805555555555569E-2</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="49">
-        <f>IF(SUM(F18:F38)=0,"Completar",SUM(F18:F38))</f>
-        <v>155</v>
+      <c r="F38" s="67">
+        <f t="shared" si="3"/>
+        <v>4.096385542168679E-2</v>
       </c>
-      <c r="G39" s="50">
-        <f>IF(SUM(G18:G38)=0,"Completar",SUM(G18:G38))</f>
-        <v>9.7222222222222224E-2</v>
+      <c r="G38" s="63"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+    </row>
+    <row r="39" spans="1:26" ht="15" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="107" t="s">
+        <v>32</v>
       </c>
-      <c r="H39" s="51" t="s">
-        <v>22</v>
+      <c r="C39" s="91"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="66">
+        <f>E29</f>
+        <v>2.9166666666666674E-2</v>
       </c>
-      <c r="I39" s="52" t="s">
-        <v>22</v>
+      <c r="F39" s="67">
+        <f t="shared" si="3"/>
+        <v>0.10120481927710845</v>
       </c>
-      <c r="J39" s="53">
-        <f>IF(OR(COUNTIF(J18:J38,"Error")&gt;0,COUNTIF(J18:J38,"Completar")&gt;0),"Error",IF(SUM(J18:J38)=0,"Completar",SUM(J18:J38)))</f>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+    </row>
+    <row r="40" spans="1:26" ht="15" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="91"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="66">
+        <f>L25</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F40" s="67">
+        <f t="shared" ref="F40:F41" si="4">IF(E40="Completar",E40,IFERROR(E40/$E$42,"Completar"))</f>
+        <v>4.8192771084337345E-2</v>
+      </c>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+    </row>
+    <row r="41" spans="1:26" ht="15" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="91"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="66">
+        <f>J25</f>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="K39" s="54">
-        <f>SUM(K18:K38)</f>
-        <v>2</v>
+      <c r="F41" s="67">
+        <f t="shared" si="4"/>
+        <v>0.28674698795180731</v>
       </c>
-      <c r="L39" s="50">
-        <f>SUM(L18:L38)</f>
-        <v>1.3888888888888888E-2</v>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+    </row>
+    <row r="42" spans="1:26" ht="15" customHeight="1">
+      <c r="A42" s="20"/>
+      <c r="B42" s="115" t="s">
+        <v>35</v>
       </c>
-      <c r="M39" s="55">
-        <f>IF(SUM(M18:M38)=0,"Completar",SUM(M18:M38))</f>
-        <v>98</v>
+      <c r="C42" s="89"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="113">
+        <f>IF(COUNTIF(E36:E41,"Error")&gt;0,"Error",IF(SUM(E36:E41)=0,"Completar",SUM(E36:E41)))</f>
+        <v>0.28819444444444448</v>
       </c>
-      <c r="N39" s="18">
-        <f>IF(OR(COUNTIF(N18:N38,"Error")&gt;0,COUNTIF(N18:N38,"Completar")&gt;0),"Error",IF(SUM(N18:N38)=0,"Completar",SUM(N18:N38)))</f>
-        <v>9.6527777777777823E-2</v>
-      </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-    </row>
-    <row r="40" spans="1:26" ht="6" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-    </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" ht="30" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="18" t="str">
-        <f>IFERROR(IF(OR(ISBLANK(C43),ISBLANK(D43)),"Completar",IF(D43&gt;=C43,D43-C43,"Error")),"Error")</f>
-        <v>Completar</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-    </row>
-    <row r="44" spans="1:26" ht="6" customHeight="1">
+      <c r="F42" s="114"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+    </row>
+    <row r="43" spans="1:26" ht="6" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+    </row>
+    <row r="44" spans="1:26" hidden="1">
       <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
       <c r="O44" s="20"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="20"/>
-      <c r="B45" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="111"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
       <c r="O45" s="20"/>
       <c r="P45" s="59"/>
       <c r="Q45" s="59"/>
@@ -3539,26 +3276,21 @@
       <c r="Y45" s="59"/>
       <c r="Z45" s="59"/>
     </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1">
+    <row r="46" spans="1:26">
       <c r="A46" s="20"/>
-      <c r="B46" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="127">
-        <f>M39</f>
-        <v>98</v>
-      </c>
-      <c r="F46" s="117"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="62"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
       <c r="O46" s="20"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="59"/>
@@ -3574,24 +3306,19 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="20"/>
-      <c r="B47" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="126">
-        <f>IF(M39="Completar","Completar",IFERROR(M39/(N39*24),"Error"))</f>
-        <v>42.302158273381274</v>
-      </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="65"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
       <c r="O47" s="20"/>
       <c r="P47" s="59"/>
       <c r="Q47" s="59"/>
@@ -3605,26 +3332,21 @@
       <c r="Y47" s="59"/>
       <c r="Z47" s="59"/>
     </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1">
+    <row r="48" spans="1:26">
       <c r="A48" s="20"/>
-      <c r="B48" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="127">
-        <f>IF(K39=0,0,IFERROR(ROUNDUP(K39/(M39/100),0),"Error"))</f>
-        <v>3</v>
-      </c>
-      <c r="F48" s="117"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="65"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
       <c r="O48" s="20"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="59"/>
@@ -3638,26 +3360,21 @@
       <c r="Y48" s="59"/>
       <c r="Z48" s="59"/>
     </row>
-    <row r="49" spans="1:26" ht="15" customHeight="1">
+    <row r="49" spans="1:26">
       <c r="A49" s="20"/>
-      <c r="B49" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="125">
-        <f>IF(K39=0,0,IFERROR(K39/M39,"Error"))</f>
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="65"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
       <c r="O49" s="20"/>
       <c r="P49" s="59"/>
       <c r="Q49" s="59"/>
@@ -3671,29 +3388,21 @@
       <c r="Y49" s="59"/>
       <c r="Z49" s="59"/>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1">
+    <row r="50" spans="1:26">
       <c r="A50" s="20"/>
-      <c r="B50" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="66">
-        <f>E5</f>
-        <v>1.1805555555555514E-2</v>
-      </c>
-      <c r="F50" s="67">
-        <f t="shared" ref="F50:F53" si="3">IF(E50="Completar",E50,IFERROR(E50/$E$56,"Error"))</f>
-        <v>6.9105691056910321E-2</v>
-      </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="65"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
       <c r="O50" s="20"/>
       <c r="P50" s="59"/>
       <c r="Q50" s="59"/>
@@ -3707,29 +3416,21 @@
       <c r="Y50" s="59"/>
       <c r="Z50" s="59"/>
     </row>
-    <row r="51" spans="1:26" ht="15" customHeight="1">
+    <row r="51" spans="1:26">
       <c r="A51" s="20"/>
-      <c r="B51" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="66">
-        <f>E9</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F51" s="67">
-        <f t="shared" si="3"/>
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="65"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
       <c r="O51" s="20"/>
       <c r="P51" s="59"/>
       <c r="Q51" s="59"/>
@@ -3743,29 +3444,21 @@
       <c r="Y51" s="59"/>
       <c r="Z51" s="59"/>
     </row>
-    <row r="52" spans="1:26" ht="15" customHeight="1">
+    <row r="52" spans="1:26">
       <c r="A52" s="20"/>
-      <c r="B52" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="66" t="str">
-        <f>E13</f>
-        <v>Completar</v>
-      </c>
-      <c r="F52" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>Completar</v>
-      </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="65"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
       <c r="O52" s="20"/>
       <c r="P52" s="59"/>
       <c r="Q52" s="59"/>
@@ -3779,29 +3472,21 @@
       <c r="Y52" s="59"/>
       <c r="Z52" s="59"/>
     </row>
-    <row r="53" spans="1:26" ht="15" customHeight="1">
+    <row r="53" spans="1:26">
       <c r="A53" s="20"/>
-      <c r="B53" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="66" t="str">
-        <f>E43</f>
-        <v>Completar</v>
-      </c>
-      <c r="F53" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>Completar</v>
-      </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="65"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
       <c r="O53" s="20"/>
       <c r="P53" s="59"/>
       <c r="Q53" s="59"/>
@@ -3815,29 +3500,21 @@
       <c r="Y53" s="59"/>
       <c r="Z53" s="59"/>
     </row>
-    <row r="54" spans="1:26" ht="15" customHeight="1">
+    <row r="54" spans="1:26">
       <c r="A54" s="20"/>
-      <c r="B54" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="66">
-        <f>L39</f>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F54" s="67">
-        <f t="shared" ref="F54:F55" si="4">IF(E54="Completar",E54,IFERROR(E54/$E$56,"Completar"))</f>
-        <v>8.1300813008130079E-2</v>
-      </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="65"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
       <c r="O54" s="20"/>
       <c r="P54" s="59"/>
       <c r="Q54" s="59"/>
@@ -3851,29 +3528,21 @@
       <c r="Y54" s="59"/>
       <c r="Z54" s="59"/>
     </row>
-    <row r="55" spans="1:26" ht="15" customHeight="1">
+    <row r="55" spans="1:26">
       <c r="A55" s="20"/>
-      <c r="B55" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="116"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="66">
-        <f>J39</f>
-        <v>8.2638888888888928E-2</v>
-      </c>
-      <c r="F55" s="67">
-        <f t="shared" si="4"/>
-        <v>0.48373983739837423</v>
-      </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="65"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
       <c r="O55" s="20"/>
       <c r="P55" s="59"/>
       <c r="Q55" s="59"/>
@@ -3887,26 +3556,21 @@
       <c r="Y55" s="59"/>
       <c r="Z55" s="59"/>
     </row>
-    <row r="56" spans="1:26" ht="15" customHeight="1">
+    <row r="56" spans="1:26">
       <c r="A56" s="20"/>
-      <c r="B56" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="121"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="118">
-        <f>IF(COUNTIF(E50:E55,"Error")&gt;0,"Error",IF(SUM(E50:E55)=0,"Completar",SUM(E50:E55)))</f>
-        <v>0.17083333333333334</v>
-      </c>
-      <c r="F56" s="119"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="70"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
       <c r="O56" s="20"/>
       <c r="P56" s="59"/>
       <c r="Q56" s="59"/>
@@ -3920,35 +3584,35 @@
       <c r="Y56" s="59"/>
       <c r="Z56" s="59"/>
     </row>
-    <row r="57" spans="1:26" ht="6" customHeight="1">
+    <row r="57" spans="1:26">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
       <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-    </row>
-    <row r="58" spans="1:26" hidden="1">
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="20"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -30324,418 +29988,36 @@
       <c r="Y999" s="59"/>
       <c r="Z999" s="59"/>
     </row>
-    <row r="1000" spans="1:26">
-      <c r="A1000" s="20"/>
-      <c r="B1000" s="59"/>
-      <c r="C1000" s="59"/>
-      <c r="D1000" s="59"/>
-      <c r="E1000" s="59"/>
-      <c r="F1000" s="59"/>
-      <c r="G1000" s="59"/>
-      <c r="H1000" s="59"/>
-      <c r="I1000" s="59"/>
-      <c r="J1000" s="59"/>
-      <c r="K1000" s="59"/>
-      <c r="L1000" s="59"/>
-      <c r="M1000" s="59"/>
-      <c r="N1000" s="59"/>
-      <c r="O1000" s="20"/>
-      <c r="P1000" s="59"/>
-      <c r="Q1000" s="59"/>
-      <c r="R1000" s="59"/>
-      <c r="S1000" s="59"/>
-      <c r="T1000" s="59"/>
-      <c r="U1000" s="59"/>
-      <c r="V1000" s="59"/>
-      <c r="W1000" s="59"/>
-      <c r="X1000" s="59"/>
-      <c r="Y1000" s="59"/>
-      <c r="Z1000" s="59"/>
-    </row>
-    <row r="1001" spans="1:26">
-      <c r="A1001" s="20"/>
-      <c r="B1001" s="59"/>
-      <c r="C1001" s="59"/>
-      <c r="D1001" s="59"/>
-      <c r="E1001" s="59"/>
-      <c r="F1001" s="59"/>
-      <c r="G1001" s="59"/>
-      <c r="H1001" s="59"/>
-      <c r="I1001" s="59"/>
-      <c r="J1001" s="59"/>
-      <c r="K1001" s="59"/>
-      <c r="L1001" s="59"/>
-      <c r="M1001" s="59"/>
-      <c r="N1001" s="59"/>
-      <c r="O1001" s="20"/>
-      <c r="P1001" s="59"/>
-      <c r="Q1001" s="59"/>
-      <c r="R1001" s="59"/>
-      <c r="S1001" s="59"/>
-      <c r="T1001" s="59"/>
-      <c r="U1001" s="59"/>
-      <c r="V1001" s="59"/>
-      <c r="W1001" s="59"/>
-      <c r="X1001" s="59"/>
-      <c r="Y1001" s="59"/>
-      <c r="Z1001" s="59"/>
-    </row>
-    <row r="1002" spans="1:26">
-      <c r="A1002" s="20"/>
-      <c r="B1002" s="59"/>
-      <c r="C1002" s="59"/>
-      <c r="D1002" s="59"/>
-      <c r="E1002" s="59"/>
-      <c r="F1002" s="59"/>
-      <c r="G1002" s="59"/>
-      <c r="H1002" s="59"/>
-      <c r="I1002" s="59"/>
-      <c r="J1002" s="59"/>
-      <c r="K1002" s="59"/>
-      <c r="L1002" s="59"/>
-      <c r="M1002" s="59"/>
-      <c r="N1002" s="59"/>
-      <c r="O1002" s="20"/>
-      <c r="P1002" s="59"/>
-      <c r="Q1002" s="59"/>
-      <c r="R1002" s="59"/>
-      <c r="S1002" s="59"/>
-      <c r="T1002" s="59"/>
-      <c r="U1002" s="59"/>
-      <c r="V1002" s="59"/>
-      <c r="W1002" s="59"/>
-      <c r="X1002" s="59"/>
-      <c r="Y1002" s="59"/>
-      <c r="Z1002" s="59"/>
-    </row>
-    <row r="1003" spans="1:26">
-      <c r="A1003" s="20"/>
-      <c r="B1003" s="59"/>
-      <c r="C1003" s="59"/>
-      <c r="D1003" s="59"/>
-      <c r="E1003" s="59"/>
-      <c r="F1003" s="59"/>
-      <c r="G1003" s="59"/>
-      <c r="H1003" s="59"/>
-      <c r="I1003" s="59"/>
-      <c r="J1003" s="59"/>
-      <c r="K1003" s="59"/>
-      <c r="L1003" s="59"/>
-      <c r="M1003" s="59"/>
-      <c r="N1003" s="59"/>
-      <c r="O1003" s="20"/>
-      <c r="P1003" s="59"/>
-      <c r="Q1003" s="59"/>
-      <c r="R1003" s="59"/>
-      <c r="S1003" s="59"/>
-      <c r="T1003" s="59"/>
-      <c r="U1003" s="59"/>
-      <c r="V1003" s="59"/>
-      <c r="W1003" s="59"/>
-      <c r="X1003" s="59"/>
-      <c r="Y1003" s="59"/>
-      <c r="Z1003" s="59"/>
-    </row>
-    <row r="1004" spans="1:26">
-      <c r="A1004" s="20"/>
-      <c r="B1004" s="59"/>
-      <c r="C1004" s="59"/>
-      <c r="D1004" s="59"/>
-      <c r="E1004" s="59"/>
-      <c r="F1004" s="59"/>
-      <c r="G1004" s="59"/>
-      <c r="H1004" s="59"/>
-      <c r="I1004" s="59"/>
-      <c r="J1004" s="59"/>
-      <c r="K1004" s="59"/>
-      <c r="L1004" s="59"/>
-      <c r="M1004" s="59"/>
-      <c r="N1004" s="59"/>
-      <c r="O1004" s="20"/>
-      <c r="P1004" s="59"/>
-      <c r="Q1004" s="59"/>
-      <c r="R1004" s="59"/>
-      <c r="S1004" s="59"/>
-      <c r="T1004" s="59"/>
-      <c r="U1004" s="59"/>
-      <c r="V1004" s="59"/>
-      <c r="W1004" s="59"/>
-      <c r="X1004" s="59"/>
-      <c r="Y1004" s="59"/>
-      <c r="Z1004" s="59"/>
-    </row>
-    <row r="1005" spans="1:26">
-      <c r="A1005" s="20"/>
-      <c r="B1005" s="59"/>
-      <c r="C1005" s="59"/>
-      <c r="D1005" s="59"/>
-      <c r="E1005" s="59"/>
-      <c r="F1005" s="59"/>
-      <c r="G1005" s="59"/>
-      <c r="H1005" s="59"/>
-      <c r="I1005" s="59"/>
-      <c r="J1005" s="59"/>
-      <c r="K1005" s="59"/>
-      <c r="L1005" s="59"/>
-      <c r="M1005" s="59"/>
-      <c r="N1005" s="59"/>
-      <c r="O1005" s="20"/>
-      <c r="P1005" s="59"/>
-      <c r="Q1005" s="59"/>
-      <c r="R1005" s="59"/>
-      <c r="S1005" s="59"/>
-      <c r="T1005" s="59"/>
-      <c r="U1005" s="59"/>
-      <c r="V1005" s="59"/>
-      <c r="W1005" s="59"/>
-      <c r="X1005" s="59"/>
-      <c r="Y1005" s="59"/>
-      <c r="Z1005" s="59"/>
-    </row>
-    <row r="1006" spans="1:26">
-      <c r="A1006" s="20"/>
-      <c r="B1006" s="59"/>
-      <c r="C1006" s="59"/>
-      <c r="D1006" s="59"/>
-      <c r="E1006" s="59"/>
-      <c r="F1006" s="59"/>
-      <c r="G1006" s="59"/>
-      <c r="H1006" s="59"/>
-      <c r="I1006" s="59"/>
-      <c r="J1006" s="59"/>
-      <c r="K1006" s="59"/>
-      <c r="L1006" s="59"/>
-      <c r="M1006" s="59"/>
-      <c r="N1006" s="59"/>
-      <c r="O1006" s="20"/>
-      <c r="P1006" s="59"/>
-      <c r="Q1006" s="59"/>
-      <c r="R1006" s="59"/>
-      <c r="S1006" s="59"/>
-      <c r="T1006" s="59"/>
-      <c r="U1006" s="59"/>
-      <c r="V1006" s="59"/>
-      <c r="W1006" s="59"/>
-      <c r="X1006" s="59"/>
-      <c r="Y1006" s="59"/>
-      <c r="Z1006" s="59"/>
-    </row>
-    <row r="1007" spans="1:26">
-      <c r="A1007" s="20"/>
-      <c r="B1007" s="59"/>
-      <c r="C1007" s="59"/>
-      <c r="D1007" s="59"/>
-      <c r="E1007" s="59"/>
-      <c r="F1007" s="59"/>
-      <c r="G1007" s="59"/>
-      <c r="H1007" s="59"/>
-      <c r="I1007" s="59"/>
-      <c r="J1007" s="59"/>
-      <c r="K1007" s="59"/>
-      <c r="L1007" s="59"/>
-      <c r="M1007" s="59"/>
-      <c r="N1007" s="59"/>
-      <c r="O1007" s="20"/>
-      <c r="P1007" s="59"/>
-      <c r="Q1007" s="59"/>
-      <c r="R1007" s="59"/>
-      <c r="S1007" s="59"/>
-      <c r="T1007" s="59"/>
-      <c r="U1007" s="59"/>
-      <c r="V1007" s="59"/>
-      <c r="W1007" s="59"/>
-      <c r="X1007" s="59"/>
-      <c r="Y1007" s="59"/>
-      <c r="Z1007" s="59"/>
-    </row>
-    <row r="1008" spans="1:26">
-      <c r="A1008" s="20"/>
-      <c r="B1008" s="59"/>
-      <c r="C1008" s="59"/>
-      <c r="D1008" s="59"/>
-      <c r="E1008" s="59"/>
-      <c r="F1008" s="59"/>
-      <c r="G1008" s="59"/>
-      <c r="H1008" s="59"/>
-      <c r="I1008" s="59"/>
-      <c r="J1008" s="59"/>
-      <c r="K1008" s="59"/>
-      <c r="L1008" s="59"/>
-      <c r="M1008" s="59"/>
-      <c r="N1008" s="59"/>
-      <c r="O1008" s="20"/>
-      <c r="P1008" s="59"/>
-      <c r="Q1008" s="59"/>
-      <c r="R1008" s="59"/>
-      <c r="S1008" s="59"/>
-      <c r="T1008" s="59"/>
-      <c r="U1008" s="59"/>
-      <c r="V1008" s="59"/>
-      <c r="W1008" s="59"/>
-      <c r="X1008" s="59"/>
-      <c r="Y1008" s="59"/>
-      <c r="Z1008" s="59"/>
-    </row>
-    <row r="1009" spans="1:26">
-      <c r="A1009" s="20"/>
-      <c r="B1009" s="59"/>
-      <c r="C1009" s="59"/>
-      <c r="D1009" s="59"/>
-      <c r="E1009" s="59"/>
-      <c r="F1009" s="59"/>
-      <c r="G1009" s="59"/>
-      <c r="H1009" s="59"/>
-      <c r="I1009" s="59"/>
-      <c r="J1009" s="59"/>
-      <c r="K1009" s="59"/>
-      <c r="L1009" s="59"/>
-      <c r="M1009" s="59"/>
-      <c r="N1009" s="59"/>
-      <c r="O1009" s="20"/>
-      <c r="P1009" s="59"/>
-      <c r="Q1009" s="59"/>
-      <c r="R1009" s="59"/>
-      <c r="S1009" s="59"/>
-      <c r="T1009" s="59"/>
-      <c r="U1009" s="59"/>
-      <c r="V1009" s="59"/>
-      <c r="W1009" s="59"/>
-      <c r="X1009" s="59"/>
-      <c r="Y1009" s="59"/>
-      <c r="Z1009" s="59"/>
-    </row>
-    <row r="1010" spans="1:26">
-      <c r="A1010" s="20"/>
-      <c r="B1010" s="59"/>
-      <c r="C1010" s="59"/>
-      <c r="D1010" s="59"/>
-      <c r="E1010" s="59"/>
-      <c r="F1010" s="59"/>
-      <c r="G1010" s="59"/>
-      <c r="H1010" s="59"/>
-      <c r="I1010" s="59"/>
-      <c r="J1010" s="59"/>
-      <c r="K1010" s="59"/>
-      <c r="L1010" s="59"/>
-      <c r="M1010" s="59"/>
-      <c r="N1010" s="59"/>
-      <c r="O1010" s="20"/>
-      <c r="P1010" s="59"/>
-      <c r="Q1010" s="59"/>
-      <c r="R1010" s="59"/>
-      <c r="S1010" s="59"/>
-      <c r="T1010" s="59"/>
-      <c r="U1010" s="59"/>
-      <c r="V1010" s="59"/>
-      <c r="W1010" s="59"/>
-      <c r="X1010" s="59"/>
-      <c r="Y1010" s="59"/>
-      <c r="Z1010" s="59"/>
-    </row>
-    <row r="1011" spans="1:26">
-      <c r="A1011" s="20"/>
-      <c r="B1011" s="59"/>
-      <c r="C1011" s="59"/>
-      <c r="D1011" s="59"/>
-      <c r="E1011" s="59"/>
-      <c r="F1011" s="59"/>
-      <c r="G1011" s="59"/>
-      <c r="H1011" s="59"/>
-      <c r="I1011" s="59"/>
-      <c r="J1011" s="59"/>
-      <c r="K1011" s="59"/>
-      <c r="L1011" s="59"/>
-      <c r="M1011" s="59"/>
-      <c r="N1011" s="59"/>
-      <c r="O1011" s="20"/>
-      <c r="P1011" s="59"/>
-      <c r="Q1011" s="59"/>
-      <c r="R1011" s="59"/>
-      <c r="S1011" s="59"/>
-      <c r="T1011" s="59"/>
-      <c r="U1011" s="59"/>
-      <c r="V1011" s="59"/>
-      <c r="W1011" s="59"/>
-      <c r="X1011" s="59"/>
-      <c r="Y1011" s="59"/>
-      <c r="Z1011" s="59"/>
-    </row>
-    <row r="1012" spans="1:26">
-      <c r="A1012" s="20"/>
-      <c r="B1012" s="59"/>
-      <c r="C1012" s="59"/>
-      <c r="D1012" s="59"/>
-      <c r="E1012" s="59"/>
-      <c r="F1012" s="59"/>
-      <c r="G1012" s="59"/>
-      <c r="H1012" s="59"/>
-      <c r="I1012" s="59"/>
-      <c r="J1012" s="59"/>
-      <c r="K1012" s="59"/>
-      <c r="L1012" s="59"/>
-      <c r="M1012" s="59"/>
-      <c r="N1012" s="59"/>
-      <c r="O1012" s="20"/>
-      <c r="P1012" s="59"/>
-      <c r="Q1012" s="59"/>
-      <c r="R1012" s="59"/>
-      <c r="S1012" s="59"/>
-      <c r="T1012" s="59"/>
-      <c r="U1012" s="59"/>
-      <c r="V1012" s="59"/>
-      <c r="W1012" s="59"/>
-      <c r="X1012" s="59"/>
-      <c r="Y1012" s="59"/>
-      <c r="Z1012" s="59"/>
-    </row>
-    <row r="1013" spans="1:26">
-      <c r="A1013" s="20"/>
-      <c r="B1013" s="59"/>
-      <c r="C1013" s="59"/>
-      <c r="D1013" s="59"/>
-      <c r="E1013" s="59"/>
-      <c r="F1013" s="59"/>
-      <c r="G1013" s="59"/>
-      <c r="H1013" s="59"/>
-      <c r="I1013" s="59"/>
-      <c r="J1013" s="59"/>
-      <c r="K1013" s="59"/>
-      <c r="L1013" s="59"/>
-      <c r="M1013" s="59"/>
-      <c r="N1013" s="59"/>
-      <c r="O1013" s="20"/>
-      <c r="P1013" s="59"/>
-      <c r="Q1013" s="59"/>
-      <c r="R1013" s="59"/>
-      <c r="S1013" s="59"/>
-      <c r="T1013" s="59"/>
-      <c r="U1013" s="59"/>
-      <c r="V1013" s="59"/>
-      <c r="W1013" s="59"/>
-      <c r="X1013" s="59"/>
-      <c r="Y1013" s="59"/>
-      <c r="Z1013" s="59"/>
-    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
+  <mergeCells count="43">
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C20:E20"/>
@@ -30746,113 +30028,19 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C24 A39:XFD1048576 A1:B38 J27:J38 C30:I37 K30:M37 D1:XFD19 D20:M24 N20:XFD38 C22:E22">
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
+  <conditionalFormatting sqref="C3:C24 A25:XFD1048576 A1:B24 D1:XFD24 C22:E22">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>"Completar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C24 A39:XFD1048576 A1:B38 J27:J38 C30:I37 K30:M37 D1:XFD19 D20:M24 N20:XFD38 C22:E22">
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:M25 C26:E26">
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:M25 C26:E26">
-    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:M26 C38 F38:I38 K38:M38">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:M26 C38 F38:I38 K38:M38">
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:I27 K27:M27">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:I27 K27:M27">
-    <cfRule type="cellIs" dxfId="10" priority="24" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:M29 C29 F29:I29">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:M29 C29 F29:I29">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28 C28 F28:I28">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
-      <formula>"Error"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I29 K29:M29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Completar"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I29 K29:M29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3:C24 A25:XFD1048576 A1:B24 D1:XFD24 C22:E22">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
       <formula>"Error"</formula>
     </cfRule>
   </conditionalFormatting>
